--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ042.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ042.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDB0FDC-CE70-4160-8E59-AA5780DE2F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF2DDD5-F0E2-4C9B-ABA2-E2CD9EB93B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -484,10 +484,6 @@
     <t>CustId= , AND RcDate=</t>
   </si>
   <si>
-    <t>A:新增,C:異動</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>三位文數字</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -584,6 +580,11 @@
   <si>
     <t>custRcSubEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1166,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1215,10 +1216,10 @@
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1263,7 +1264,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="18" t="s">
@@ -1276,7 +1277,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="18" t="s">
@@ -1310,7 +1311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>1</v>
       </c>
@@ -1328,7 +1329,7 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H10"/>
     </row>
@@ -1343,14 +1344,14 @@
         <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="18">
         <v>3</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11"/>
     </row>
@@ -1365,14 +1366,14 @@
         <v>17</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="18">
         <v>10</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12"/>
     </row>
@@ -1387,7 +1388,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="18">
         <v>8</v>
@@ -1407,14 +1408,14 @@
         <v>31</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="18">
         <v>3</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H14"/>
     </row>
@@ -1869,7 +1870,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>63</v>
@@ -1888,10 +1889,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>27</v>
@@ -2343,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -2369,7 +2370,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>99</v>
@@ -2380,7 +2381,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>101</v>
@@ -2391,7 +2392,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>102</v>
@@ -2402,43 +2403,43 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
